--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaSanPhamDvCuThe.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaSanPhamDvCuThe.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB\ASP\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EBD352-7C80-4494-9B58-752CB5B7DE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2D4FEA-EB7D-4867-BF01-73120248FA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{47CC190E-FBAD-4F05-B020-ECB48EB0696D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>STT</t>
   </si>
@@ -55,20 +55,22 @@
   <si>
     <t>Mã nhóm</t>
   </si>
+  <si>
+    <t>GIÁ SẢN PHẨM DỊCH VỤ CỤ THỂ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -76,7 +78,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -85,7 +87,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -98,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -147,21 +149,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -177,9 +188,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -508,24 +521,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7333CE1-928F-430E-BA40-92726812FB7D}">
-  <dimension ref="A2:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -541,40 +566,46 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="4"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <dataConsolidate/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:H3"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="D4:G1048576" xr:uid="{C1F6D96C-4069-4404-9CD6-77668528893B}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>